--- a/4.4-4.10.xlsx
+++ b/4.4-4.10.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,13 +10,16 @@
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
     <sheet name="盟会战" sheetId="8" r:id="rId2"/>
     <sheet name="帮战总榜" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
+    <sheet name="透明表" sheetId="15" r:id="rId4"/>
     <sheet name="帮派活动" sheetId="10" r:id="rId5"/>
     <sheet name="逐梦-箱子" sheetId="11" r:id="rId6"/>
     <sheet name="如梦-箱子" sheetId="12" r:id="rId7"/>
     <sheet name="若梦-箱子" sheetId="13" r:id="rId8"/>
     <sheet name="何梦-箱子" sheetId="14" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">掠夺总榜!$I$2:$K$122</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -589,6 +592,60 @@
   </si>
   <si>
     <t>白大侠</t>
+  </si>
+  <si>
+    <t>倾舞情儿</t>
+  </si>
+  <si>
+    <t>淡若清风過丶</t>
+  </si>
+  <si>
+    <t>橘生淮北为枳</t>
+  </si>
+  <si>
+    <t>最可爱的师姐</t>
+  </si>
+  <si>
+    <t>棒棒噠</t>
+  </si>
+  <si>
+    <t>懒小孩</t>
+  </si>
+  <si>
+    <t>泪满衫r</t>
+  </si>
+  <si>
+    <t>QQ绿钻</t>
+  </si>
+  <si>
+    <t>旧忆</t>
+  </si>
+  <si>
+    <t>儒丶张良</t>
+  </si>
+  <si>
+    <t>白公子x</t>
+  </si>
+  <si>
+    <t>雪潇然c</t>
+  </si>
+  <si>
+    <t>章鱼宝宝</t>
+  </si>
+  <si>
+    <t>梦太晚</t>
+  </si>
+  <si>
+    <t>几度度丶</t>
+  </si>
+  <si>
+    <t>美美噠</t>
+  </si>
+  <si>
+    <t>君挽言</t>
+  </si>
+  <si>
+    <t>浩浩丶浩</t>
   </si>
 </sst>
 </file>
@@ -978,6 +1035,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2804,6 +2862,182 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M1:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -2939,7 +3173,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -3018,182 +3252,6 @@
     </i>
     <i>
       <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M1:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="6"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -3486,10 +3544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K93" activeCellId="1" sqref="F100 K93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,6 +3557,8 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3546,7 +3607,7 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -3587,6 +3648,12 @@
       <c r="F3" t="s">
         <v>60</v>
       </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -3601,6 +3668,12 @@
       <c r="F4" t="s">
         <v>108</v>
       </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3615,6 +3688,12 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3629,6 +3708,12 @@
       <c r="F6" t="s">
         <v>103</v>
       </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3643,6 +3728,12 @@
       <c r="F7" t="s">
         <v>67</v>
       </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3657,6 +3748,12 @@
       <c r="F8" t="s">
         <v>85</v>
       </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3671,6 +3768,12 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3685,6 +3788,12 @@
       <c r="F10" t="s">
         <v>166</v>
       </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3699,6 +3808,12 @@
       <c r="F11" t="s">
         <v>50</v>
       </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3713,6 +3828,12 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3727,6 +3848,12 @@
       <c r="F13" t="s">
         <v>129</v>
       </c>
+      <c r="I13" s="4">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3741,6 +3868,12 @@
       <c r="F14" t="s">
         <v>25</v>
       </c>
+      <c r="I14" s="4">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3755,6 +3888,12 @@
       <c r="F15" t="s">
         <v>31</v>
       </c>
+      <c r="I15" s="4">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3769,8 +3908,14 @@
       <c r="F16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" s="4">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3783,8 +3928,14 @@
       <c r="F17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" s="4">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -3797,8 +3948,14 @@
       <c r="F18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" s="4">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -3811,8 +3968,14 @@
       <c r="F19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" s="4">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3825,8 +3988,14 @@
       <c r="F20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" s="4">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -3839,8 +4008,14 @@
       <c r="F21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" s="4">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -3853,8 +4028,14 @@
       <c r="F22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" s="4">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -3867,8 +4048,14 @@
       <c r="F23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" s="4">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -3881,8 +4068,14 @@
       <c r="F24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24" s="4">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -3895,8 +4088,14 @@
       <c r="F25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25" s="4">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -3909,8 +4108,14 @@
       <c r="F26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26" s="4">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3923,8 +4128,14 @@
       <c r="F27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27" s="4">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -3937,8 +4148,14 @@
       <c r="F28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28" s="4">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -3951,8 +4168,14 @@
       <c r="F29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29" s="4">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -3965,8 +4188,14 @@
       <c r="F30" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30" s="4">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -3979,8 +4208,14 @@
       <c r="F31" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31" s="4">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -3993,8 +4228,14 @@
       <c r="F32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32" s="4">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -4007,8 +4248,14 @@
       <c r="F33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="4">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -4021,8 +4268,14 @@
       <c r="F34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34" s="4">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -4035,8 +4288,14 @@
       <c r="F35" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" s="4">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -4049,8 +4308,14 @@
       <c r="F36" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36" s="4">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -4063,8 +4328,14 @@
       <c r="F37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37" s="4">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -4077,8 +4348,14 @@
       <c r="F38" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38" s="4">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -4091,8 +4368,14 @@
       <c r="F39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" s="4">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -4105,8 +4388,14 @@
       <c r="F40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40" s="4">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -4119,8 +4408,14 @@
       <c r="F41" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41" s="4">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -4133,8 +4428,14 @@
       <c r="F42" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42" s="4">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -4147,8 +4448,14 @@
       <c r="F43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43" s="4">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -4161,8 +4468,14 @@
       <c r="F44" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I44" s="4">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -4175,8 +4488,14 @@
       <c r="F45" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45" s="4">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -4189,8 +4508,14 @@
       <c r="F46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I46" s="4">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -4203,8 +4528,14 @@
       <c r="F47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47" s="4">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -4217,8 +4548,14 @@
       <c r="F48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48" s="4">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -4231,8 +4568,14 @@
       <c r="F49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="4">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -4245,8 +4588,14 @@
       <c r="F50" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I50" s="4">
+        <v>48</v>
+      </c>
+      <c r="J50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -4259,8 +4608,14 @@
       <c r="F51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I51" s="4">
+        <v>49</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -4273,8 +4628,14 @@
       <c r="F52" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I52" s="4">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -4287,8 +4648,14 @@
       <c r="F53" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53" s="4">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -4301,8 +4668,14 @@
       <c r="F54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54" s="4">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -4315,8 +4688,14 @@
       <c r="F55" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I55" s="4">
+        <v>53</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -4329,8 +4708,14 @@
       <c r="F56" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I56" s="4">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -4343,8 +4728,14 @@
       <c r="F57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I57" s="4">
+        <v>55</v>
+      </c>
+      <c r="J57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -4357,8 +4748,14 @@
       <c r="F58" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58" s="4">
+        <v>56</v>
+      </c>
+      <c r="J58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -4371,8 +4768,14 @@
       <c r="F59" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I59" s="4">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -4385,8 +4788,14 @@
       <c r="F60" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I60" s="4">
+        <v>58</v>
+      </c>
+      <c r="J60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -4399,8 +4808,14 @@
       <c r="F61" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I61" s="4">
+        <v>59</v>
+      </c>
+      <c r="J61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -4413,8 +4828,14 @@
       <c r="F62" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I62" s="4">
+        <v>60</v>
+      </c>
+      <c r="J62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -4427,8 +4848,14 @@
       <c r="F63" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I63" s="4">
+        <v>61</v>
+      </c>
+      <c r="J63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -4441,8 +4868,14 @@
       <c r="F64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I64" s="4">
+        <v>62</v>
+      </c>
+      <c r="J64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -4455,8 +4888,14 @@
       <c r="F65" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I65" s="4">
+        <v>63</v>
+      </c>
+      <c r="J65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -4469,8 +4908,14 @@
       <c r="F66" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I66" s="4">
+        <v>64</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -4483,8 +4928,14 @@
       <c r="F67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I67" s="4">
+        <v>65</v>
+      </c>
+      <c r="J67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -4497,8 +4948,14 @@
       <c r="F68" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I68" s="4">
+        <v>66</v>
+      </c>
+      <c r="J68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -4511,8 +4968,14 @@
       <c r="F69" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I69" s="4">
+        <v>67</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -4525,8 +4988,14 @@
       <c r="F70" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I70" s="4">
+        <v>68</v>
+      </c>
+      <c r="J70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -4539,8 +5008,14 @@
       <c r="F71" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I71" s="4">
+        <v>69</v>
+      </c>
+      <c r="J71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -4553,8 +5028,14 @@
       <c r="F72" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I72" s="4">
+        <v>70</v>
+      </c>
+      <c r="J72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -4567,8 +5048,14 @@
       <c r="F73" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I73" s="4">
+        <v>71</v>
+      </c>
+      <c r="J73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -4581,8 +5068,14 @@
       <c r="F74" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I74" s="4">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -4595,8 +5088,14 @@
       <c r="F75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I75" s="4">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -4609,8 +5108,14 @@
       <c r="F76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I76" s="4">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -4623,8 +5128,14 @@
       <c r="F77" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I77" s="4">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -4637,8 +5148,14 @@
       <c r="F78" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I78" s="4">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -4651,8 +5168,14 @@
       <c r="F79" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I79" s="4">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -4665,8 +5188,14 @@
       <c r="F80" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I80" s="4">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -4679,8 +5208,14 @@
       <c r="F81" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I81" s="4">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -4693,8 +5228,14 @@
       <c r="F82" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I82" s="4">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -4707,8 +5248,14 @@
       <c r="F83" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I83" s="4">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -4721,8 +5268,14 @@
       <c r="F84" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I84" s="4">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -4735,8 +5288,14 @@
       <c r="F85" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I85" s="4">
+        <v>83</v>
+      </c>
+      <c r="J85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -4749,8 +5308,14 @@
       <c r="F86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I86" s="4">
+        <v>84</v>
+      </c>
+      <c r="J86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -4763,8 +5328,14 @@
       <c r="F87" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I87" s="4">
+        <v>85</v>
+      </c>
+      <c r="J87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -4777,8 +5348,14 @@
       <c r="F88" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I88" s="4">
+        <v>86</v>
+      </c>
+      <c r="J88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -4791,8 +5368,14 @@
       <c r="F89" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I89" s="4">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -4805,8 +5388,14 @@
       <c r="F90" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I90" s="4">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -4819,8 +5408,14 @@
       <c r="F91" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I91" s="4">
+        <v>89</v>
+      </c>
+      <c r="J91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -4833,8 +5428,14 @@
       <c r="F92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I92" s="4">
+        <v>90</v>
+      </c>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -4847,8 +5448,14 @@
       <c r="F93" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I93" s="4">
+        <v>91</v>
+      </c>
+      <c r="J93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -4861,8 +5468,14 @@
       <c r="F94" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I94" s="4">
+        <v>92</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -4875,8 +5488,14 @@
       <c r="F95" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I95" s="4">
+        <v>93</v>
+      </c>
+      <c r="J95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -4889,8 +5508,14 @@
       <c r="F96" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I96" s="4">
+        <v>94</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -4903,8 +5528,14 @@
       <c r="F97" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I97" s="4">
+        <v>95</v>
+      </c>
+      <c r="J97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -4917,8 +5548,14 @@
       <c r="F98" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I98" s="4">
+        <v>96</v>
+      </c>
+      <c r="J98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -4931,8 +5568,14 @@
       <c r="F99" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I99" s="4">
+        <v>97</v>
+      </c>
+      <c r="J99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -4945,8 +5588,14 @@
       <c r="F100" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I100" s="4">
+        <v>98</v>
+      </c>
+      <c r="J100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -4959,40 +5608,70 @@
       <c r="F101" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I101" s="4">
+        <v>99</v>
+      </c>
+      <c r="J101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I102" s="4">
+        <v>100</v>
+      </c>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I103" s="4">
+        <v>101</v>
+      </c>
+      <c r="J103" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I104" s="4">
+        <v>102</v>
+      </c>
+      <c r="J104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I105" s="4">
+        <v>103</v>
+      </c>
+      <c r="J105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -5000,7 +5679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -5008,7 +5687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -5016,7 +5695,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -5024,7 +5703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -5032,7 +5711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -5040,7 +5719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -5073,6 +5752,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="I3:K122">
+    <sortCondition descending="1" ref="J3"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -5087,6 +5769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5135,10 +5818,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5934,10 +6618,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="M2:O11"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,6 +7319,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6682,6 +7368,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6733,6 +7420,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6771,6 +7459,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6809,6 +7498,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/4.4-4.10.xlsx
+++ b/4.4-4.10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="22" r:id="rId10"/>
+    <pivotCache cacheId="23" r:id="rId11"/>
+    <pivotCache cacheId="24" r:id="rId12"/>
+    <pivotCache cacheId="25" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="318">
   <si>
     <t>ID</t>
   </si>
@@ -646,6 +646,357 @@
   </si>
   <si>
     <t>浩浩丶浩</t>
+  </si>
+  <si>
+    <t>1 笑看丶天下 62 92</t>
+  </si>
+  <si>
+    <t>2 墨萧炎 50 76</t>
+  </si>
+  <si>
+    <t>3 煌煌 56 68</t>
+  </si>
+  <si>
+    <t>4 树儿高高长 54 60</t>
+  </si>
+  <si>
+    <t>5 丿几度度丶 47 59</t>
+  </si>
+  <si>
+    <t>6 丶她有清喉 53 59</t>
+  </si>
+  <si>
+    <t>7 陌路莫回 49 59</t>
+  </si>
+  <si>
+    <t>8 青城爱未恋 50 56</t>
+  </si>
+  <si>
+    <t>9 男人应有的自豪 49 55</t>
+  </si>
+  <si>
+    <t>10 墨韵轩华 52 54</t>
+  </si>
+  <si>
+    <t>11 凡哥的祖父 45 53</t>
+  </si>
+  <si>
+    <t>12 冷晓汐丶 52 52</t>
+  </si>
+  <si>
+    <t>13 彡电竞丿柯南乄 48 52</t>
+  </si>
+  <si>
+    <t>14 墨炽 45 49</t>
+  </si>
+  <si>
+    <t>15 全城竟是小白兔 43 47</t>
+  </si>
+  <si>
+    <t>16 一人一枪闯九州 45 45</t>
+  </si>
+  <si>
+    <t>17 等我出轻语 45 45</t>
+  </si>
+  <si>
+    <t>18 机智勇敢的小猪 34 44</t>
+  </si>
+  <si>
+    <t>19 奶妈起余音 40 44</t>
+  </si>
+  <si>
+    <t>20 机智勇敢的小吊 34 42</t>
+  </si>
+  <si>
+    <t>21 机智勇敢的小炮 31 39</t>
+  </si>
+  <si>
+    <t>22 一直梨花压海棠 34 38</t>
+  </si>
+  <si>
+    <t>23 凯贼阔里 30 34</t>
+  </si>
+  <si>
+    <t>24 奶小牛丶 28 34</t>
+  </si>
+  <si>
+    <t>25 淺笙 32 34</t>
+  </si>
+  <si>
+    <t>26 曲终无意 30 32</t>
+  </si>
+  <si>
+    <t>27 古巷烟雨断桥殇 25 29</t>
+  </si>
+  <si>
+    <t>28 格殺 27 29</t>
+  </si>
+  <si>
+    <t>29 淡若清风過丶 20 26</t>
+  </si>
+  <si>
+    <t>30 荡荡 17 23</t>
+  </si>
+  <si>
+    <t>31 池小晚 15 19</t>
+  </si>
+  <si>
+    <t>32 ′浪浪 18 18</t>
+  </si>
+  <si>
+    <t>33 一曲天涯炸大肠 17 17</t>
+  </si>
+  <si>
+    <t>34 等风与你 13 15</t>
+  </si>
+  <si>
+    <t>35 格七 12 14</t>
+  </si>
+  <si>
+    <t>36 白公子x 14 14</t>
+  </si>
+  <si>
+    <t>37 梦觞丶 10 10</t>
+  </si>
+  <si>
+    <t>38 美美噠 8 8</t>
+  </si>
+  <si>
+    <t>39 只想做个好人 1 3</t>
+  </si>
+  <si>
+    <t>40 琴韵红衣丶心 1 1</t>
+  </si>
+  <si>
+    <t>41 苍镜 1 1</t>
+  </si>
+  <si>
+    <t>42 框框 1 1</t>
+  </si>
+  <si>
+    <t>43 君挽言 0 0</t>
+  </si>
+  <si>
+    <t>44 丶倾弦 0 0</t>
+  </si>
+  <si>
+    <t>45 东风路三狗蛋 0 0</t>
+  </si>
+  <si>
+    <t>46 异逍遥 0 0</t>
+  </si>
+  <si>
+    <t>47 蹲坑從不帶纸 0 0</t>
+  </si>
+  <si>
+    <t>48 青羽墨染云 0 0</t>
+  </si>
+  <si>
+    <t>49 任离流 0 0</t>
+  </si>
+  <si>
+    <t>50 My丶殇 0 0</t>
+  </si>
+  <si>
+    <t>51 知南茶清 0 0</t>
+  </si>
+  <si>
+    <t>52 潇洒仗剑天下 0 0</t>
+  </si>
+  <si>
+    <t>53 仑吾山、盖聂 0 0</t>
+  </si>
+  <si>
+    <t>54 毕夏有毓 0 0</t>
+  </si>
+  <si>
+    <t>55 拌饭萌面酥 0 0</t>
+  </si>
+  <si>
+    <t>56 杂粮煎饼 0 0</t>
+  </si>
+  <si>
+    <t>57 董锋 0 0</t>
+  </si>
+  <si>
+    <t>58 山高丶木易 0 0</t>
+  </si>
+  <si>
+    <t>59 乐璟 0 0</t>
+  </si>
+  <si>
+    <t>60 言柳 0 0</t>
+  </si>
+  <si>
+    <t>61 时钟轻摇孤独 0 0</t>
+  </si>
+  <si>
+    <t>62 二瞳 0 0</t>
+  </si>
+  <si>
+    <t>63 殇如此忧伤 0 0</t>
+  </si>
+  <si>
+    <t>64 零拾 0 0</t>
+  </si>
+  <si>
+    <t>65 香扒饭 0 0</t>
+  </si>
+  <si>
+    <t>66 幻之凝雪 0 0</t>
+  </si>
+  <si>
+    <t>67 紫雨幽雲 0 0</t>
+  </si>
+  <si>
+    <t>68 懒小孩 0 0</t>
+  </si>
+  <si>
+    <t>69 踏马清月夜 0 0</t>
+  </si>
+  <si>
+    <t>70 帅气无敌康爸爸 0 0</t>
+  </si>
+  <si>
+    <t>71 噬心人 0 0</t>
+  </si>
+  <si>
+    <t>72 百里轩翊 0 0</t>
+  </si>
+  <si>
+    <t>73 灬醉丨雲嫣 0 0</t>
+  </si>
+  <si>
+    <t>74 一抹煙雨落繁華 0 0</t>
+  </si>
+  <si>
+    <t>75 墨河 0 0</t>
+  </si>
+  <si>
+    <t>76 ULan 0 0</t>
+  </si>
+  <si>
+    <t>77 翎羽寒心 0 0</t>
+  </si>
+  <si>
+    <t>78 乌莲娜 0 0</t>
+  </si>
+  <si>
+    <t>79 一曲天涯梦未远 0 0</t>
+  </si>
+  <si>
+    <t>80 机智勇敢的小兔 0 0</t>
+  </si>
+  <si>
+    <t>81 随你几时丶 0 0</t>
+  </si>
+  <si>
+    <t>82 木易丶凝烟 0 0</t>
+  </si>
+  <si>
+    <t>83 美人倾城 0 0</t>
+  </si>
+  <si>
+    <t>84 舞恋月 0 0</t>
+  </si>
+  <si>
+    <t>85 裴述 0 0</t>
+  </si>
+  <si>
+    <t>86 楪夢 0 0</t>
+  </si>
+  <si>
+    <t>87 叶菡 0 0</t>
+  </si>
+  <si>
+    <t>88 守护锋 0 0</t>
+  </si>
+  <si>
+    <t>89 浩浩丶浩 0 0</t>
+  </si>
+  <si>
+    <t>90 太极至尊 0 0</t>
+  </si>
+  <si>
+    <t>91 机智勇敢的小浪 0 0</t>
+  </si>
+  <si>
+    <t>92 顾北歌寒 0 0</t>
+  </si>
+  <si>
+    <t>93 机智勇敢的小明 0 0</t>
+  </si>
+  <si>
+    <t>94 若汐 0 0</t>
+  </si>
+  <si>
+    <t>95 紫舞流年 0 0</t>
+  </si>
+  <si>
+    <t>96 殇月未觞 0 0</t>
+  </si>
+  <si>
+    <t>97 狂灬黑 0 0</t>
+  </si>
+  <si>
+    <t>98 再见是否红着脸 0 0</t>
+  </si>
+  <si>
+    <t>99 一曲天涯醉月光 0 0</t>
+  </si>
+  <si>
+    <t>100 叁岁丶 0 0</t>
+  </si>
+  <si>
+    <t>101 摩诃大梵天 0 0</t>
+  </si>
+  <si>
+    <t>102 渡亡 0 0</t>
+  </si>
+  <si>
+    <t>103 凡人的梦 0 0</t>
+  </si>
+  <si>
+    <t>104 其实想玩刀客 0 0</t>
+  </si>
+  <si>
+    <t>105 时辰信叁 0 0</t>
+  </si>
+  <si>
+    <t>106 儒丶张良 0 0</t>
+  </si>
+  <si>
+    <t>107 诸天花雨 0 0</t>
+  </si>
+  <si>
+    <t>108 洪时雪 0 0</t>
+  </si>
+  <si>
+    <t>109 QQ绿钻 1 0</t>
+  </si>
+  <si>
+    <t>110 柒叶浅 0 0</t>
+  </si>
+  <si>
+    <t>111 几度度丶 0 0</t>
+  </si>
+  <si>
+    <t>112 艾莉亞史塔克 0 0</t>
+  </si>
+  <si>
+    <t>113 蝶舞旧梦 0 0</t>
+  </si>
+  <si>
+    <t>114 凯 0 0</t>
+  </si>
+  <si>
+    <t>115 机智勇敢的小珞 0 0</t>
+  </si>
+  <si>
+    <t>七条</t>
+  </si>
+  <si>
+    <t>2016-04-05-龙狗</t>
   </si>
 </sst>
 </file>
@@ -701,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -723,6 +1074,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2862,7 +3216,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M1:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2942,7 +3296,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3038,7 +3392,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3174,7 +3528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3545,10 +3899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,6 +4008,9 @@
       <c r="J3" t="s">
         <v>113</v>
       </c>
+      <c r="M3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -3674,6 +4031,9 @@
       <c r="J4" t="s">
         <v>161</v>
       </c>
+      <c r="M4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3694,6 +4054,9 @@
       <c r="J5" t="s">
         <v>141</v>
       </c>
+      <c r="M5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3714,6 +4077,9 @@
       <c r="J6" t="s">
         <v>146</v>
       </c>
+      <c r="M6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3734,6 +4100,9 @@
       <c r="J7" t="s">
         <v>31</v>
       </c>
+      <c r="M7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3754,6 +4123,9 @@
       <c r="J8" t="s">
         <v>194</v>
       </c>
+      <c r="M8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3774,6 +4146,9 @@
       <c r="J9" t="s">
         <v>81</v>
       </c>
+      <c r="M9" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3794,6 +4169,9 @@
       <c r="J10" t="s">
         <v>91</v>
       </c>
+      <c r="M10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3814,6 +4192,9 @@
       <c r="J11" t="s">
         <v>36</v>
       </c>
+      <c r="M11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3834,6 +4215,9 @@
       <c r="J12" t="s">
         <v>167</v>
       </c>
+      <c r="M12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3854,6 +4238,9 @@
       <c r="J13" t="s">
         <v>105</v>
       </c>
+      <c r="M13" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3874,6 +4261,9 @@
       <c r="J14" t="s">
         <v>59</v>
       </c>
+      <c r="M14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3894,6 +4284,9 @@
       <c r="J15" t="s">
         <v>154</v>
       </c>
+      <c r="M15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3914,8 +4307,11 @@
       <c r="J16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3934,8 +4330,11 @@
       <c r="J17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -3954,8 +4353,11 @@
       <c r="J18" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -3974,8 +4376,11 @@
       <c r="J19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3994,8 +4399,11 @@
       <c r="J20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4014,8 +4422,11 @@
       <c r="J21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -4034,8 +4445,11 @@
       <c r="J22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -4054,8 +4468,11 @@
       <c r="J23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -4074,8 +4491,11 @@
       <c r="J24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -4094,8 +4514,11 @@
       <c r="J25" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -4114,8 +4537,11 @@
       <c r="J26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -4134,8 +4560,11 @@
       <c r="J27" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -4154,8 +4583,11 @@
       <c r="J28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -4174,8 +4606,11 @@
       <c r="J29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -4194,8 +4629,11 @@
       <c r="J30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -4214,8 +4652,11 @@
       <c r="J31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -4234,8 +4675,11 @@
       <c r="J32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -4254,8 +4698,11 @@
       <c r="J33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -4274,8 +4721,11 @@
       <c r="J34" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -4294,8 +4744,11 @@
       <c r="J35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -4314,8 +4767,11 @@
       <c r="J36" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -4334,8 +4790,11 @@
       <c r="J37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -4354,8 +4813,11 @@
       <c r="J38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -4374,8 +4836,11 @@
       <c r="J39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -4394,8 +4859,11 @@
       <c r="J40" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -4414,8 +4882,11 @@
       <c r="J41" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -4434,8 +4905,11 @@
       <c r="J42" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -4454,8 +4928,11 @@
       <c r="J43" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -4474,8 +4951,11 @@
       <c r="J44" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -4494,8 +4974,11 @@
       <c r="J45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -4514,8 +4997,11 @@
       <c r="J46" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -4534,8 +5020,11 @@
       <c r="J47" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -4554,8 +5043,11 @@
       <c r="J48" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -4574,8 +5066,11 @@
       <c r="J49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -4594,8 +5089,11 @@
       <c r="J50" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -4614,8 +5112,11 @@
       <c r="J51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -4634,8 +5135,11 @@
       <c r="J52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -4654,8 +5158,11 @@
       <c r="J53" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -4674,8 +5181,11 @@
       <c r="J54" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -4694,8 +5204,11 @@
       <c r="J55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -4714,8 +5227,11 @@
       <c r="J56" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -4734,8 +5250,11 @@
       <c r="J57" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -4754,8 +5273,11 @@
       <c r="J58" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -4774,8 +5296,11 @@
       <c r="J59" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -4794,8 +5319,11 @@
       <c r="J60" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -4814,8 +5342,11 @@
       <c r="J61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -4834,8 +5365,11 @@
       <c r="J62" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -4854,8 +5388,11 @@
       <c r="J63" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -4874,8 +5411,11 @@
       <c r="J64" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -4894,8 +5434,11 @@
       <c r="J65" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -4914,8 +5457,11 @@
       <c r="J66" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -4934,8 +5480,11 @@
       <c r="J67" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -4954,8 +5503,11 @@
       <c r="J68" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -4974,8 +5526,11 @@
       <c r="J69" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -4994,8 +5549,11 @@
       <c r="J70" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -5014,8 +5572,11 @@
       <c r="J71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -5034,8 +5595,11 @@
       <c r="J72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -5054,8 +5618,11 @@
       <c r="J73" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -5074,8 +5641,11 @@
       <c r="J74" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -5094,8 +5664,11 @@
       <c r="J75" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -5114,8 +5687,11 @@
       <c r="J76" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -5134,8 +5710,11 @@
       <c r="J77" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -5154,8 +5733,11 @@
       <c r="J78" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -5174,8 +5756,11 @@
       <c r="J79" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -5194,8 +5779,11 @@
       <c r="J80" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -5214,8 +5802,11 @@
       <c r="J81" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -5234,8 +5825,11 @@
       <c r="J82" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -5254,8 +5848,11 @@
       <c r="J83" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -5274,8 +5871,11 @@
       <c r="J84" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -5294,8 +5894,11 @@
       <c r="J85" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -5314,8 +5917,11 @@
       <c r="J86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -5334,8 +5940,11 @@
       <c r="J87" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -5354,8 +5963,11 @@
       <c r="J88" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -5374,8 +5986,11 @@
       <c r="J89" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -5394,8 +6009,11 @@
       <c r="J90" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -5414,8 +6032,11 @@
       <c r="J91" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -5434,8 +6055,11 @@
       <c r="J92" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -5454,8 +6078,11 @@
       <c r="J93" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -5474,8 +6101,11 @@
       <c r="J94" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -5494,8 +6124,11 @@
       <c r="J95" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -5514,8 +6147,11 @@
       <c r="J96" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -5534,8 +6170,11 @@
       <c r="J97" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -5554,8 +6193,11 @@
       <c r="J98" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -5574,8 +6216,11 @@
       <c r="J99" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -5594,8 +6239,11 @@
       <c r="J100" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -5614,8 +6262,11 @@
       <c r="J101" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -5628,8 +6279,11 @@
       <c r="J102" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -5642,8 +6296,11 @@
       <c r="J103" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -5656,8 +6313,11 @@
       <c r="J104" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -5670,85 +6330,128 @@
       <c r="J105" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>165</v>
+      </c>
+      <c r="M115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +6522,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="E41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6437,7 +7140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>46</v>
       </c>
@@ -6466,7 +7169,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>48</v>
       </c>
@@ -6486,7 +7189,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>36</v>
       </c>
@@ -6506,7 +7209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>87</v>
       </c>
@@ -6526,7 +7229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>66</v>
       </c>
@@ -6537,7 +7240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>72</v>
       </c>
@@ -6548,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>71</v>
       </c>
@@ -6559,7 +7262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>59</v>
       </c>
@@ -6570,7 +7273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>63</v>
       </c>
@@ -6581,7 +7284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>68</v>
       </c>
@@ -6592,7 +7295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>87</v>
       </c>
@@ -6603,8 +7306,448 @@
         <v>1031</v>
       </c>
     </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>4</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>3</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>5</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="10">
+        <v>3</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="O35" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>5</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>2</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2</v>
+      </c>
+      <c r="K37" s="10">
+        <v>3</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <v>3</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" s="10">
+        <v>2</v>
+      </c>
+      <c r="O38" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>6</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" s="10">
+        <v>5</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>3</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>4</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A30:O30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>

--- a/4.4-4.10.xlsx
+++ b/4.4-4.10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId10"/>
-    <pivotCache cacheId="23" r:id="rId11"/>
-    <pivotCache cacheId="24" r:id="rId12"/>
-    <pivotCache cacheId="25" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -997,6 +997,54 @@
   </si>
   <si>
     <t>2016-04-05-龙狗</t>
+  </si>
+  <si>
+    <t>＊团灭专用奶</t>
+  </si>
+  <si>
+    <t>一曲天涯炸大肠</t>
+  </si>
+  <si>
+    <t>曲终无意</t>
+  </si>
+  <si>
+    <t>噬心人</t>
+  </si>
+  <si>
+    <t>雪糕失望</t>
+  </si>
+  <si>
+    <t>荆轲已逝高渐离</t>
+  </si>
+  <si>
+    <t>神丶陌上微光</t>
+  </si>
+  <si>
+    <t>锦衣卫知秋</t>
+  </si>
+  <si>
+    <t>＊下水道的白</t>
+  </si>
+  <si>
+    <t>放肆流逝的年华</t>
+  </si>
+  <si>
+    <t>唐初訫</t>
+  </si>
+  <si>
+    <t>晚下</t>
+  </si>
+  <si>
+    <t>青衫隐丶</t>
+  </si>
+  <si>
+    <t>昔昔</t>
+  </si>
+  <si>
+    <t>濯清莲而不妖</t>
+  </si>
+  <si>
+    <t>梦里和你千百次</t>
   </si>
 </sst>
 </file>
@@ -1070,13 +1118,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1389,7 +1437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3216,7 +3263,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M1:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3295,8 +3450,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3391,8 +3546,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3498,114 +3653,6 @@
     </i>
     <i>
       <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -3901,8 +3948,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,34 +3960,35 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3979,7 +4027,7 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R2" t="s">
@@ -4011,6 +4059,12 @@
       <c r="M3" t="s">
         <v>201</v>
       </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -4034,6 +4088,12 @@
       <c r="M4" t="s">
         <v>202</v>
       </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -4057,6 +4117,12 @@
       <c r="M5" t="s">
         <v>203</v>
       </c>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4080,6 +4146,12 @@
       <c r="M6" t="s">
         <v>204</v>
       </c>
+      <c r="Q6" s="4">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4103,6 +4175,12 @@
       <c r="M7" t="s">
         <v>205</v>
       </c>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4126,6 +4204,12 @@
       <c r="M8" t="s">
         <v>206</v>
       </c>
+      <c r="Q8" s="4">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4149,6 +4233,12 @@
       <c r="M9" t="s">
         <v>207</v>
       </c>
+      <c r="Q9" s="4">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4172,6 +4262,12 @@
       <c r="M10" t="s">
         <v>208</v>
       </c>
+      <c r="Q10" s="4">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4195,6 +4291,12 @@
       <c r="M11" t="s">
         <v>209</v>
       </c>
+      <c r="Q11" s="4">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4218,6 +4320,12 @@
       <c r="M12" t="s">
         <v>210</v>
       </c>
+      <c r="Q12" s="4">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4241,6 +4349,12 @@
       <c r="M13" t="s">
         <v>211</v>
       </c>
+      <c r="Q13" s="4">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4264,6 +4378,12 @@
       <c r="M14" t="s">
         <v>212</v>
       </c>
+      <c r="Q14" s="4">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -4287,6 +4407,12 @@
       <c r="M15" t="s">
         <v>213</v>
       </c>
+      <c r="Q15" s="4">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -4310,8 +4436,14 @@
       <c r="M16" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4333,8 +4465,14 @@
       <c r="M17" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4356,8 +4494,14 @@
       <c r="M18" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4379,8 +4523,14 @@
       <c r="M19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -4402,8 +4552,14 @@
       <c r="M20" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4425,8 +4581,14 @@
       <c r="M21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q21" s="4">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -4448,8 +4610,14 @@
       <c r="M22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q22" s="4">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -4471,8 +4639,14 @@
       <c r="M23" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q23" s="4">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -4494,8 +4668,14 @@
       <c r="M24" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q24" s="4">
+        <v>22</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -4517,8 +4697,14 @@
       <c r="M25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q25" s="4">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -4540,8 +4726,14 @@
       <c r="M26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -4563,8 +4755,14 @@
       <c r="M27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q27" s="4">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -4586,8 +4784,14 @@
       <c r="M28" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -4609,8 +4813,14 @@
       <c r="M29" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -4632,8 +4842,14 @@
       <c r="M30" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -4655,8 +4871,14 @@
       <c r="M31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q31" s="4">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -4678,8 +4900,14 @@
       <c r="M32" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q32" s="4">
+        <v>30</v>
+      </c>
+      <c r="R32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -4701,8 +4929,14 @@
       <c r="M33" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q33" s="4">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -4724,8 +4958,14 @@
       <c r="M34" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q34" s="4">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -4747,8 +4987,14 @@
       <c r="M35" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q35" s="4">
+        <v>33</v>
+      </c>
+      <c r="R35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -4770,8 +5016,14 @@
       <c r="M36" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q36" s="4">
+        <v>34</v>
+      </c>
+      <c r="R36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -4793,8 +5045,14 @@
       <c r="M37" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q37" s="4">
+        <v>35</v>
+      </c>
+      <c r="R37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -4816,8 +5074,14 @@
       <c r="M38" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q38" s="4">
+        <v>36</v>
+      </c>
+      <c r="R38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -4839,8 +5103,14 @@
       <c r="M39" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q39" s="4">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -4862,8 +5132,14 @@
       <c r="M40" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q40" s="4">
+        <v>38</v>
+      </c>
+      <c r="R40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -4885,8 +5161,14 @@
       <c r="M41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q41" s="4">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -4908,8 +5190,14 @@
       <c r="M42" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q42" s="4">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -4931,8 +5219,14 @@
       <c r="M43" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q43" s="4">
+        <v>41</v>
+      </c>
+      <c r="R43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -4954,8 +5248,14 @@
       <c r="M44" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q44" s="4">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -4977,8 +5277,14 @@
       <c r="M45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q45" s="4">
+        <v>43</v>
+      </c>
+      <c r="R45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -5000,8 +5306,14 @@
       <c r="M46" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q46" s="4">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -5023,8 +5335,14 @@
       <c r="M47" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q47" s="4">
+        <v>45</v>
+      </c>
+      <c r="R47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -5046,8 +5364,14 @@
       <c r="M48" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q48" s="4">
+        <v>46</v>
+      </c>
+      <c r="R48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -5069,8 +5393,14 @@
       <c r="M49" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q49" s="4">
+        <v>47</v>
+      </c>
+      <c r="R49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -5092,8 +5422,14 @@
       <c r="M50" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q50" s="4">
+        <v>48</v>
+      </c>
+      <c r="R50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -5115,8 +5451,14 @@
       <c r="M51" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q51" s="4">
+        <v>49</v>
+      </c>
+      <c r="R51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -5138,8 +5480,14 @@
       <c r="M52" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q52" s="4">
+        <v>50</v>
+      </c>
+      <c r="R52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -5161,8 +5509,14 @@
       <c r="M53" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q53" s="4">
+        <v>51</v>
+      </c>
+      <c r="R53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -5184,8 +5538,14 @@
       <c r="M54" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q54" s="4">
+        <v>52</v>
+      </c>
+      <c r="R54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -5207,8 +5567,14 @@
       <c r="M55" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q55" s="4">
+        <v>53</v>
+      </c>
+      <c r="R55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -5230,8 +5596,14 @@
       <c r="M56" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q56" s="4">
+        <v>54</v>
+      </c>
+      <c r="R56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -5253,8 +5625,14 @@
       <c r="M57" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q57" s="4">
+        <v>55</v>
+      </c>
+      <c r="R57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -5276,8 +5654,14 @@
       <c r="M58" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q58" s="4">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -5299,8 +5683,14 @@
       <c r="M59" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q59" s="4">
+        <v>57</v>
+      </c>
+      <c r="R59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -5322,8 +5712,14 @@
       <c r="M60" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q60" s="4">
+        <v>58</v>
+      </c>
+      <c r="R60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -5345,8 +5741,14 @@
       <c r="M61" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q61" s="4">
+        <v>59</v>
+      </c>
+      <c r="R61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -5368,8 +5770,14 @@
       <c r="M62" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q62" s="4">
+        <v>60</v>
+      </c>
+      <c r="R62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -5391,8 +5799,14 @@
       <c r="M63" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q63" s="4">
+        <v>61</v>
+      </c>
+      <c r="R63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -5414,8 +5828,14 @@
       <c r="M64" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q64" s="4">
+        <v>62</v>
+      </c>
+      <c r="R64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -5437,8 +5857,14 @@
       <c r="M65" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q65" s="4">
+        <v>63</v>
+      </c>
+      <c r="R65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -5460,8 +5886,14 @@
       <c r="M66" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q66" s="4">
+        <v>64</v>
+      </c>
+      <c r="R66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -5483,8 +5915,14 @@
       <c r="M67" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q67" s="4">
+        <v>65</v>
+      </c>
+      <c r="R67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -5506,8 +5944,14 @@
       <c r="M68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q68" s="4">
+        <v>66</v>
+      </c>
+      <c r="R68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -5529,8 +5973,14 @@
       <c r="M69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q69" s="4">
+        <v>67</v>
+      </c>
+      <c r="R69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -5552,8 +6002,14 @@
       <c r="M70" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q70" s="4">
+        <v>68</v>
+      </c>
+      <c r="R70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -5575,8 +6031,14 @@
       <c r="M71" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q71" s="4">
+        <v>69</v>
+      </c>
+      <c r="R71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -5598,8 +6060,14 @@
       <c r="M72" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q72" s="4">
+        <v>70</v>
+      </c>
+      <c r="R72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -5621,8 +6089,14 @@
       <c r="M73" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q73" s="4">
+        <v>71</v>
+      </c>
+      <c r="R73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -5644,8 +6118,14 @@
       <c r="M74" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q74" s="4">
+        <v>72</v>
+      </c>
+      <c r="R74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -5667,8 +6147,14 @@
       <c r="M75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q75" s="4">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -5690,8 +6176,14 @@
       <c r="M76" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q76" s="4">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -5713,8 +6205,14 @@
       <c r="M77" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q77" s="4">
+        <v>75</v>
+      </c>
+      <c r="R77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -5736,8 +6234,14 @@
       <c r="M78" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q78" s="4">
+        <v>76</v>
+      </c>
+      <c r="R78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -5759,8 +6263,14 @@
       <c r="M79" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q79" s="4">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -5782,8 +6292,14 @@
       <c r="M80" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q80" s="4">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -5805,8 +6321,14 @@
       <c r="M81" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q81" s="4">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -5828,8 +6350,14 @@
       <c r="M82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q82" s="4">
+        <v>80</v>
+      </c>
+      <c r="R82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -5851,8 +6379,14 @@
       <c r="M83" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q83" s="4">
+        <v>81</v>
+      </c>
+      <c r="R83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -5874,8 +6408,14 @@
       <c r="M84" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q84" s="4">
+        <v>82</v>
+      </c>
+      <c r="R84" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -5897,8 +6437,14 @@
       <c r="M85" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q85" s="4">
+        <v>83</v>
+      </c>
+      <c r="R85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -5920,8 +6466,14 @@
       <c r="M86" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q86" s="4">
+        <v>84</v>
+      </c>
+      <c r="R86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -5943,8 +6495,14 @@
       <c r="M87" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q87" s="4">
+        <v>85</v>
+      </c>
+      <c r="R87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -5966,8 +6524,14 @@
       <c r="M88" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q88" s="4">
+        <v>86</v>
+      </c>
+      <c r="R88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -5989,8 +6553,14 @@
       <c r="M89" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q89" s="4">
+        <v>87</v>
+      </c>
+      <c r="R89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -6012,8 +6582,14 @@
       <c r="M90" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q90" s="4">
+        <v>88</v>
+      </c>
+      <c r="R90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -6035,8 +6611,14 @@
       <c r="M91" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q91" s="4">
+        <v>89</v>
+      </c>
+      <c r="R91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -6058,8 +6640,14 @@
       <c r="M92" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q92" s="4">
+        <v>90</v>
+      </c>
+      <c r="R92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -6081,8 +6669,14 @@
       <c r="M93" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q93" s="4">
+        <v>91</v>
+      </c>
+      <c r="R93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -6104,8 +6698,14 @@
       <c r="M94" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q94" s="4">
+        <v>92</v>
+      </c>
+      <c r="R94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -6127,8 +6727,14 @@
       <c r="M95" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q95" s="4">
+        <v>93</v>
+      </c>
+      <c r="R95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -6150,8 +6756,14 @@
       <c r="M96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q96" s="4">
+        <v>94</v>
+      </c>
+      <c r="R96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -6173,8 +6785,14 @@
       <c r="M97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q97" s="4">
+        <v>95</v>
+      </c>
+      <c r="R97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -6196,8 +6814,14 @@
       <c r="M98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q98" s="4">
+        <v>96</v>
+      </c>
+      <c r="R98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -6219,8 +6843,14 @@
       <c r="M99" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q99" s="4">
+        <v>97</v>
+      </c>
+      <c r="R99" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -6242,8 +6872,14 @@
       <c r="M100" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q100" s="4">
+        <v>98</v>
+      </c>
+      <c r="R100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -6265,8 +6901,14 @@
       <c r="M101" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q101" s="4">
+        <v>99</v>
+      </c>
+      <c r="R101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -6282,8 +6924,14 @@
       <c r="M102" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q102" s="4">
+        <v>100</v>
+      </c>
+      <c r="R102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -6299,8 +6947,14 @@
       <c r="M103" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q103" s="4">
+        <v>101</v>
+      </c>
+      <c r="R103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -6316,8 +6970,14 @@
       <c r="M104" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q104" s="4">
+        <v>102</v>
+      </c>
+      <c r="R104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -6333,8 +6993,14 @@
       <c r="M105" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q105" s="4">
+        <v>103</v>
+      </c>
+      <c r="R105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -6344,8 +7010,14 @@
       <c r="M106" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q106" s="4">
+        <v>104</v>
+      </c>
+      <c r="R106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -6355,8 +7027,14 @@
       <c r="M107" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q107" s="4">
+        <v>105</v>
+      </c>
+      <c r="R107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -6366,8 +7044,14 @@
       <c r="M108" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q108" s="4">
+        <v>106</v>
+      </c>
+      <c r="R108" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -6377,8 +7061,14 @@
       <c r="M109" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q109" s="4">
+        <v>107</v>
+      </c>
+      <c r="R109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -6388,8 +7078,14 @@
       <c r="M110" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q110" s="4">
+        <v>108</v>
+      </c>
+      <c r="R110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -6399,8 +7095,14 @@
       <c r="M111" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q111" s="4">
+        <v>109</v>
+      </c>
+      <c r="R111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -6410,8 +7112,14 @@
       <c r="M112" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q112" s="4">
+        <v>110</v>
+      </c>
+      <c r="R112" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -6421,8 +7129,14 @@
       <c r="M113" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q113" s="4">
+        <v>111</v>
+      </c>
+      <c r="R113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -6432,8 +7146,14 @@
       <c r="M114" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q114" s="4">
+        <v>112</v>
+      </c>
+      <c r="R114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -6443,13 +7163,19 @@
       <c r="M115" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q115" s="4">
+        <v>113</v>
+      </c>
+      <c r="R115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
         <v>315</v>
       </c>
@@ -6482,14 +7208,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6524,7 +7250,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="E41:G41"/>
     </sheetView>
   </sheetViews>
@@ -6537,26 +7263,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3" t="s">
         <v>3</v>
@@ -6575,23 +7301,23 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
       <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7307,23 +8033,23 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -7370,40 +8096,40 @@
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <v>2</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <v>1</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="8">
         <v>2</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="8">
         <v>1</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="8">
         <v>2</v>
       </c>
     </row>
@@ -7411,40 +8137,40 @@
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>3</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <v>2</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <v>0</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="8">
         <v>4</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="8">
         <v>0</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="8">
         <v>4</v>
       </c>
     </row>
@@ -7452,40 +8178,40 @@
       <c r="A34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>2</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>3</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <v>3</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="8">
         <v>0</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="8">
         <v>5</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="8">
         <v>1</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="8">
         <v>5</v>
       </c>
     </row>
@@ -7493,257 +8219,257 @@
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>4</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <v>2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <v>2</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="8">
         <v>3</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="8">
         <v>1</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="8"/>
       <c r="M35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="8">
         <v>1</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <v>5</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <v>1</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="8">
         <v>1</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>1</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>2</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <v>2</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="8">
         <v>3</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="8"/>
       <c r="M37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="8">
         <v>1</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <v>2</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>2</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="8">
         <v>0</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="8">
         <v>3</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="8"/>
       <c r="M38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="8">
         <v>2</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <v>1</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>2</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="8">
         <v>0</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="8">
         <v>1</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="8">
         <v>0</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>6</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <v>5</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="8">
         <v>0</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <v>0</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="8">
         <v>3</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="8">
         <v>0</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="8">
         <v>4</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="8"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8472,26 +9198,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/4.4-4.10.xlsx
+++ b/4.4-4.10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="224">
   <si>
     <t>ID</t>
   </si>
@@ -648,351 +648,6 @@
     <t>浩浩丶浩</t>
   </si>
   <si>
-    <t>1 笑看丶天下 62 92</t>
-  </si>
-  <si>
-    <t>2 墨萧炎 50 76</t>
-  </si>
-  <si>
-    <t>3 煌煌 56 68</t>
-  </si>
-  <si>
-    <t>4 树儿高高长 54 60</t>
-  </si>
-  <si>
-    <t>5 丿几度度丶 47 59</t>
-  </si>
-  <si>
-    <t>6 丶她有清喉 53 59</t>
-  </si>
-  <si>
-    <t>7 陌路莫回 49 59</t>
-  </si>
-  <si>
-    <t>8 青城爱未恋 50 56</t>
-  </si>
-  <si>
-    <t>9 男人应有的自豪 49 55</t>
-  </si>
-  <si>
-    <t>10 墨韵轩华 52 54</t>
-  </si>
-  <si>
-    <t>11 凡哥的祖父 45 53</t>
-  </si>
-  <si>
-    <t>12 冷晓汐丶 52 52</t>
-  </si>
-  <si>
-    <t>13 彡电竞丿柯南乄 48 52</t>
-  </si>
-  <si>
-    <t>14 墨炽 45 49</t>
-  </si>
-  <si>
-    <t>15 全城竟是小白兔 43 47</t>
-  </si>
-  <si>
-    <t>16 一人一枪闯九州 45 45</t>
-  </si>
-  <si>
-    <t>17 等我出轻语 45 45</t>
-  </si>
-  <si>
-    <t>18 机智勇敢的小猪 34 44</t>
-  </si>
-  <si>
-    <t>19 奶妈起余音 40 44</t>
-  </si>
-  <si>
-    <t>20 机智勇敢的小吊 34 42</t>
-  </si>
-  <si>
-    <t>21 机智勇敢的小炮 31 39</t>
-  </si>
-  <si>
-    <t>22 一直梨花压海棠 34 38</t>
-  </si>
-  <si>
-    <t>23 凯贼阔里 30 34</t>
-  </si>
-  <si>
-    <t>24 奶小牛丶 28 34</t>
-  </si>
-  <si>
-    <t>25 淺笙 32 34</t>
-  </si>
-  <si>
-    <t>26 曲终无意 30 32</t>
-  </si>
-  <si>
-    <t>27 古巷烟雨断桥殇 25 29</t>
-  </si>
-  <si>
-    <t>28 格殺 27 29</t>
-  </si>
-  <si>
-    <t>29 淡若清风過丶 20 26</t>
-  </si>
-  <si>
-    <t>30 荡荡 17 23</t>
-  </si>
-  <si>
-    <t>31 池小晚 15 19</t>
-  </si>
-  <si>
-    <t>32 ′浪浪 18 18</t>
-  </si>
-  <si>
-    <t>33 一曲天涯炸大肠 17 17</t>
-  </si>
-  <si>
-    <t>34 等风与你 13 15</t>
-  </si>
-  <si>
-    <t>35 格七 12 14</t>
-  </si>
-  <si>
-    <t>36 白公子x 14 14</t>
-  </si>
-  <si>
-    <t>37 梦觞丶 10 10</t>
-  </si>
-  <si>
-    <t>38 美美噠 8 8</t>
-  </si>
-  <si>
-    <t>39 只想做个好人 1 3</t>
-  </si>
-  <si>
-    <t>40 琴韵红衣丶心 1 1</t>
-  </si>
-  <si>
-    <t>41 苍镜 1 1</t>
-  </si>
-  <si>
-    <t>42 框框 1 1</t>
-  </si>
-  <si>
-    <t>43 君挽言 0 0</t>
-  </si>
-  <si>
-    <t>44 丶倾弦 0 0</t>
-  </si>
-  <si>
-    <t>45 东风路三狗蛋 0 0</t>
-  </si>
-  <si>
-    <t>46 异逍遥 0 0</t>
-  </si>
-  <si>
-    <t>47 蹲坑從不帶纸 0 0</t>
-  </si>
-  <si>
-    <t>48 青羽墨染云 0 0</t>
-  </si>
-  <si>
-    <t>49 任离流 0 0</t>
-  </si>
-  <si>
-    <t>50 My丶殇 0 0</t>
-  </si>
-  <si>
-    <t>51 知南茶清 0 0</t>
-  </si>
-  <si>
-    <t>52 潇洒仗剑天下 0 0</t>
-  </si>
-  <si>
-    <t>53 仑吾山、盖聂 0 0</t>
-  </si>
-  <si>
-    <t>54 毕夏有毓 0 0</t>
-  </si>
-  <si>
-    <t>55 拌饭萌面酥 0 0</t>
-  </si>
-  <si>
-    <t>56 杂粮煎饼 0 0</t>
-  </si>
-  <si>
-    <t>57 董锋 0 0</t>
-  </si>
-  <si>
-    <t>58 山高丶木易 0 0</t>
-  </si>
-  <si>
-    <t>59 乐璟 0 0</t>
-  </si>
-  <si>
-    <t>60 言柳 0 0</t>
-  </si>
-  <si>
-    <t>61 时钟轻摇孤独 0 0</t>
-  </si>
-  <si>
-    <t>62 二瞳 0 0</t>
-  </si>
-  <si>
-    <t>63 殇如此忧伤 0 0</t>
-  </si>
-  <si>
-    <t>64 零拾 0 0</t>
-  </si>
-  <si>
-    <t>65 香扒饭 0 0</t>
-  </si>
-  <si>
-    <t>66 幻之凝雪 0 0</t>
-  </si>
-  <si>
-    <t>67 紫雨幽雲 0 0</t>
-  </si>
-  <si>
-    <t>68 懒小孩 0 0</t>
-  </si>
-  <si>
-    <t>69 踏马清月夜 0 0</t>
-  </si>
-  <si>
-    <t>70 帅气无敌康爸爸 0 0</t>
-  </si>
-  <si>
-    <t>71 噬心人 0 0</t>
-  </si>
-  <si>
-    <t>72 百里轩翊 0 0</t>
-  </si>
-  <si>
-    <t>73 灬醉丨雲嫣 0 0</t>
-  </si>
-  <si>
-    <t>74 一抹煙雨落繁華 0 0</t>
-  </si>
-  <si>
-    <t>75 墨河 0 0</t>
-  </si>
-  <si>
-    <t>76 ULan 0 0</t>
-  </si>
-  <si>
-    <t>77 翎羽寒心 0 0</t>
-  </si>
-  <si>
-    <t>78 乌莲娜 0 0</t>
-  </si>
-  <si>
-    <t>79 一曲天涯梦未远 0 0</t>
-  </si>
-  <si>
-    <t>80 机智勇敢的小兔 0 0</t>
-  </si>
-  <si>
-    <t>81 随你几时丶 0 0</t>
-  </si>
-  <si>
-    <t>82 木易丶凝烟 0 0</t>
-  </si>
-  <si>
-    <t>83 美人倾城 0 0</t>
-  </si>
-  <si>
-    <t>84 舞恋月 0 0</t>
-  </si>
-  <si>
-    <t>85 裴述 0 0</t>
-  </si>
-  <si>
-    <t>86 楪夢 0 0</t>
-  </si>
-  <si>
-    <t>87 叶菡 0 0</t>
-  </si>
-  <si>
-    <t>88 守护锋 0 0</t>
-  </si>
-  <si>
-    <t>89 浩浩丶浩 0 0</t>
-  </si>
-  <si>
-    <t>90 太极至尊 0 0</t>
-  </si>
-  <si>
-    <t>91 机智勇敢的小浪 0 0</t>
-  </si>
-  <si>
-    <t>92 顾北歌寒 0 0</t>
-  </si>
-  <si>
-    <t>93 机智勇敢的小明 0 0</t>
-  </si>
-  <si>
-    <t>94 若汐 0 0</t>
-  </si>
-  <si>
-    <t>95 紫舞流年 0 0</t>
-  </si>
-  <si>
-    <t>96 殇月未觞 0 0</t>
-  </si>
-  <si>
-    <t>97 狂灬黑 0 0</t>
-  </si>
-  <si>
-    <t>98 再见是否红着脸 0 0</t>
-  </si>
-  <si>
-    <t>99 一曲天涯醉月光 0 0</t>
-  </si>
-  <si>
-    <t>100 叁岁丶 0 0</t>
-  </si>
-  <si>
-    <t>101 摩诃大梵天 0 0</t>
-  </si>
-  <si>
-    <t>102 渡亡 0 0</t>
-  </si>
-  <si>
-    <t>103 凡人的梦 0 0</t>
-  </si>
-  <si>
-    <t>104 其实想玩刀客 0 0</t>
-  </si>
-  <si>
-    <t>105 时辰信叁 0 0</t>
-  </si>
-  <si>
-    <t>106 儒丶张良 0 0</t>
-  </si>
-  <si>
-    <t>107 诸天花雨 0 0</t>
-  </si>
-  <si>
-    <t>108 洪时雪 0 0</t>
-  </si>
-  <si>
-    <t>109 QQ绿钻 1 0</t>
-  </si>
-  <si>
-    <t>110 柒叶浅 0 0</t>
-  </si>
-  <si>
-    <t>111 几度度丶 0 0</t>
-  </si>
-  <si>
-    <t>112 艾莉亞史塔克 0 0</t>
-  </si>
-  <si>
-    <t>113 蝶舞旧梦 0 0</t>
-  </si>
-  <si>
-    <t>114 凯 0 0</t>
-  </si>
-  <si>
-    <t>115 机智勇敢的小珞 0 0</t>
-  </si>
-  <si>
     <t>七条</t>
   </si>
   <si>
@@ -1045,6 +700,21 @@
   </si>
   <si>
     <t>梦里和你千百次</t>
+  </si>
+  <si>
+    <t>男人应有的自豪</t>
+  </si>
+  <si>
+    <t>机智勇敢的小兔</t>
+  </si>
+  <si>
+    <t>宫离嫣</t>
+  </si>
+  <si>
+    <t>独孤几度</t>
+  </si>
+  <si>
+    <t>樱夢</t>
   </si>
 </sst>
 </file>
@@ -3946,10 +3616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,7 +3630,10 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -4018,7 +3691,7 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N2" t="s">
@@ -4056,8 +3729,11 @@
       <c r="J3" t="s">
         <v>113</v>
       </c>
-      <c r="M3" t="s">
-        <v>201</v>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
       </c>
       <c r="Q3" s="4">
         <v>1</v>
@@ -4085,8 +3761,11 @@
       <c r="J4" t="s">
         <v>161</v>
       </c>
-      <c r="M4" t="s">
-        <v>202</v>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>107</v>
       </c>
       <c r="Q4" s="4">
         <v>2</v>
@@ -4114,8 +3793,11 @@
       <c r="J5" t="s">
         <v>141</v>
       </c>
-      <c r="M5" t="s">
-        <v>203</v>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
       </c>
       <c r="Q5" s="4">
         <v>3</v>
@@ -4143,8 +3825,11 @@
       <c r="J6" t="s">
         <v>146</v>
       </c>
-      <c r="M6" t="s">
-        <v>204</v>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>140</v>
       </c>
       <c r="Q6" s="4">
         <v>4</v>
@@ -4172,8 +3857,11 @@
       <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" t="s">
-        <v>205</v>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>130</v>
       </c>
       <c r="Q7" s="4">
         <v>5</v>
@@ -4201,8 +3889,11 @@
       <c r="J8" t="s">
         <v>194</v>
       </c>
-      <c r="M8" t="s">
-        <v>206</v>
+      <c r="M8" s="4">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" s="4">
         <v>6</v>
@@ -4230,8 +3921,11 @@
       <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
-        <v>207</v>
+      <c r="M9" s="4">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
       </c>
       <c r="Q9" s="4">
         <v>7</v>
@@ -4259,8 +3953,11 @@
       <c r="J10" t="s">
         <v>91</v>
       </c>
-      <c r="M10" t="s">
-        <v>208</v>
+      <c r="M10" s="4">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>219</v>
       </c>
       <c r="Q10" s="4">
         <v>8</v>
@@ -4288,8 +3985,11 @@
       <c r="J11" t="s">
         <v>36</v>
       </c>
-      <c r="M11" t="s">
-        <v>209</v>
+      <c r="M11" s="4">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
       </c>
       <c r="Q11" s="4">
         <v>9</v>
@@ -4317,8 +4017,11 @@
       <c r="J12" t="s">
         <v>167</v>
       </c>
-      <c r="M12" t="s">
-        <v>210</v>
+      <c r="M12" s="4">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
       </c>
       <c r="Q12" s="4">
         <v>10</v>
@@ -4346,8 +4049,11 @@
       <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="M13" t="s">
-        <v>211</v>
+      <c r="M13" s="4">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
       </c>
       <c r="Q13" s="4">
         <v>11</v>
@@ -4375,8 +4081,11 @@
       <c r="J14" t="s">
         <v>59</v>
       </c>
-      <c r="M14" t="s">
-        <v>212</v>
+      <c r="M14" s="4">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
       </c>
       <c r="Q14" s="4">
         <v>12</v>
@@ -4404,8 +4113,11 @@
       <c r="J15" t="s">
         <v>154</v>
       </c>
-      <c r="M15" t="s">
-        <v>213</v>
+      <c r="M15" s="4">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
       </c>
       <c r="Q15" s="4">
         <v>13</v>
@@ -4433,8 +4145,11 @@
       <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="M16" t="s">
-        <v>214</v>
+      <c r="M16" s="4">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
       </c>
       <c r="Q16" s="4">
         <v>14</v>
@@ -4462,8 +4177,11 @@
       <c r="J17" t="s">
         <v>175</v>
       </c>
-      <c r="M17" t="s">
-        <v>215</v>
+      <c r="M17" s="4">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
       </c>
       <c r="Q17" s="4">
         <v>15</v>
@@ -4491,8 +4209,11 @@
       <c r="J18" t="s">
         <v>198</v>
       </c>
-      <c r="M18" t="s">
-        <v>216</v>
+      <c r="M18" s="4">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
       </c>
       <c r="Q18" s="4">
         <v>16</v>
@@ -4520,8 +4241,11 @@
       <c r="J19" t="s">
         <v>108</v>
       </c>
-      <c r="M19" t="s">
-        <v>217</v>
+      <c r="M19" s="4">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
       </c>
       <c r="Q19" s="4">
         <v>17</v>
@@ -4549,8 +4273,11 @@
       <c r="J20" t="s">
         <v>152</v>
       </c>
-      <c r="M20" t="s">
-        <v>218</v>
+      <c r="M20" s="4">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
       </c>
       <c r="Q20" s="4">
         <v>18</v>
@@ -4578,8 +4305,11 @@
       <c r="J21" t="s">
         <v>110</v>
       </c>
-      <c r="M21" t="s">
-        <v>219</v>
+      <c r="M21" s="4">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
       </c>
       <c r="Q21" s="4">
         <v>19</v>
@@ -4607,14 +4337,17 @@
       <c r="J22" t="s">
         <v>66</v>
       </c>
-      <c r="M22" t="s">
-        <v>220</v>
+      <c r="M22" s="4">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
       </c>
       <c r="Q22" s="4">
         <v>20</v>
       </c>
       <c r="R22" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -4636,8 +4369,11 @@
       <c r="J23" t="s">
         <v>195</v>
       </c>
-      <c r="M23" t="s">
-        <v>221</v>
+      <c r="M23" s="4">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
       </c>
       <c r="Q23" s="4">
         <v>21</v>
@@ -4665,8 +4401,11 @@
       <c r="J24" t="s">
         <v>99</v>
       </c>
-      <c r="M24" t="s">
-        <v>222</v>
+      <c r="M24" s="4">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
       </c>
       <c r="Q24" s="4">
         <v>22</v>
@@ -4694,8 +4433,11 @@
       <c r="J25" t="s">
         <v>136</v>
       </c>
-      <c r="M25" t="s">
-        <v>223</v>
+      <c r="M25" s="4">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
       </c>
       <c r="Q25" s="4">
         <v>23</v>
@@ -4723,8 +4465,11 @@
       <c r="J26" t="s">
         <v>112</v>
       </c>
-      <c r="M26" t="s">
-        <v>224</v>
+      <c r="M26" s="4">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>162</v>
       </c>
       <c r="Q26" s="4">
         <v>24</v>
@@ -4752,8 +4497,11 @@
       <c r="J27" t="s">
         <v>193</v>
       </c>
-      <c r="M27" t="s">
-        <v>225</v>
+      <c r="M27" s="4">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
       </c>
       <c r="Q27" s="4">
         <v>25</v>
@@ -4781,8 +4529,11 @@
       <c r="J28" t="s">
         <v>169</v>
       </c>
-      <c r="M28" t="s">
-        <v>226</v>
+      <c r="M28" s="4">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>184</v>
       </c>
       <c r="Q28" s="4">
         <v>26</v>
@@ -4810,8 +4561,11 @@
       <c r="J29" t="s">
         <v>50</v>
       </c>
-      <c r="M29" t="s">
-        <v>227</v>
+      <c r="M29" s="4">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>59</v>
       </c>
       <c r="Q29" s="4">
         <v>27</v>
@@ -4839,8 +4593,11 @@
       <c r="J30" t="s">
         <v>98</v>
       </c>
-      <c r="M30" t="s">
-        <v>228</v>
+      <c r="M30" s="4">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>41</v>
       </c>
       <c r="Q30" s="4">
         <v>28</v>
@@ -4868,8 +4625,11 @@
       <c r="J31" t="s">
         <v>52</v>
       </c>
-      <c r="M31" t="s">
-        <v>229</v>
+      <c r="M31" s="4">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>110</v>
       </c>
       <c r="Q31" s="4">
         <v>29</v>
@@ -4897,8 +4657,11 @@
       <c r="J32" t="s">
         <v>46</v>
       </c>
-      <c r="M32" t="s">
-        <v>230</v>
+      <c r="M32" s="4">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>193</v>
       </c>
       <c r="Q32" s="4">
         <v>30</v>
@@ -4926,8 +4689,11 @@
       <c r="J33" t="s">
         <v>184</v>
       </c>
-      <c r="M33" t="s">
-        <v>231</v>
+      <c r="M33" s="4">
+        <v>31</v>
+      </c>
+      <c r="N33" t="s">
+        <v>158</v>
       </c>
       <c r="Q33" s="4">
         <v>31</v>
@@ -4955,8 +4721,11 @@
       <c r="J34" t="s">
         <v>200</v>
       </c>
-      <c r="M34" t="s">
-        <v>232</v>
+      <c r="M34" s="4">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>163</v>
       </c>
       <c r="Q34" s="4">
         <v>32</v>
@@ -4984,8 +4753,11 @@
       <c r="J35" t="s">
         <v>54</v>
       </c>
-      <c r="M35" t="s">
-        <v>233</v>
+      <c r="M35" s="4">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>198</v>
       </c>
       <c r="Q35" s="4">
         <v>33</v>
@@ -5013,8 +4785,11 @@
       <c r="J36" t="s">
         <v>189</v>
       </c>
-      <c r="M36" t="s">
-        <v>234</v>
+      <c r="M36" s="4">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>151</v>
       </c>
       <c r="Q36" s="4">
         <v>34</v>
@@ -5042,8 +4817,11 @@
       <c r="J37" t="s">
         <v>41</v>
       </c>
-      <c r="M37" t="s">
-        <v>235</v>
+      <c r="M37" s="4">
+        <v>35</v>
+      </c>
+      <c r="N37" t="s">
+        <v>169</v>
       </c>
       <c r="Q37" s="4">
         <v>35</v>
@@ -5071,8 +4849,11 @@
       <c r="J38" t="s">
         <v>168</v>
       </c>
-      <c r="M38" t="s">
-        <v>236</v>
+      <c r="M38" s="4">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>67</v>
       </c>
       <c r="Q38" s="4">
         <v>36</v>
@@ -5100,8 +4881,11 @@
       <c r="J39" t="s">
         <v>117</v>
       </c>
-      <c r="M39" t="s">
-        <v>237</v>
+      <c r="M39" s="4">
+        <v>37</v>
+      </c>
+      <c r="N39" t="s">
+        <v>85</v>
       </c>
       <c r="Q39" s="4">
         <v>37</v>
@@ -5129,8 +4913,11 @@
       <c r="J40" t="s">
         <v>185</v>
       </c>
-      <c r="M40" t="s">
-        <v>238</v>
+      <c r="M40" s="4">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>152</v>
       </c>
       <c r="Q40" s="4">
         <v>38</v>
@@ -5158,8 +4945,11 @@
       <c r="J41" t="s">
         <v>156</v>
       </c>
-      <c r="M41" t="s">
-        <v>239</v>
+      <c r="M41" s="4">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>123</v>
       </c>
       <c r="Q41" s="4">
         <v>39</v>
@@ -5187,8 +4977,11 @@
       <c r="J42" t="s">
         <v>187</v>
       </c>
-      <c r="M42" t="s">
-        <v>240</v>
+      <c r="M42" s="4">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
+        <v>124</v>
       </c>
       <c r="Q42" s="4">
         <v>40</v>
@@ -5216,8 +5009,11 @@
       <c r="J43" t="s">
         <v>163</v>
       </c>
-      <c r="M43" t="s">
-        <v>241</v>
+      <c r="M43" s="4">
+        <v>41</v>
+      </c>
+      <c r="N43" t="s">
+        <v>119</v>
       </c>
       <c r="Q43" s="4">
         <v>41</v>
@@ -5245,8 +5041,11 @@
       <c r="J44" t="s">
         <v>196</v>
       </c>
-      <c r="M44" t="s">
-        <v>242</v>
+      <c r="M44" s="4">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s">
+        <v>141</v>
       </c>
       <c r="Q44" s="4">
         <v>42</v>
@@ -5274,8 +5073,11 @@
       <c r="J45" t="s">
         <v>67</v>
       </c>
-      <c r="M45" t="s">
-        <v>243</v>
+      <c r="M45" s="4">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>139</v>
       </c>
       <c r="Q45" s="4">
         <v>43</v>
@@ -5303,14 +5105,17 @@
       <c r="J46" t="s">
         <v>162</v>
       </c>
-      <c r="M46" t="s">
-        <v>244</v>
+      <c r="M46" s="4">
+        <v>44</v>
+      </c>
+      <c r="N46" t="s">
+        <v>52</v>
       </c>
       <c r="Q46" s="4">
         <v>44</v>
       </c>
       <c r="R46" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -5332,8 +5137,11 @@
       <c r="J47" t="s">
         <v>158</v>
       </c>
-      <c r="M47" t="s">
-        <v>245</v>
+      <c r="M47" s="4">
+        <v>45</v>
+      </c>
+      <c r="N47" t="s">
+        <v>80</v>
       </c>
       <c r="Q47" s="4">
         <v>45</v>
@@ -5361,8 +5169,11 @@
       <c r="J48" t="s">
         <v>140</v>
       </c>
-      <c r="M48" t="s">
-        <v>246</v>
+      <c r="M48" s="4">
+        <v>46</v>
+      </c>
+      <c r="N48" t="s">
+        <v>94</v>
       </c>
       <c r="Q48" s="4">
         <v>46</v>
@@ -5390,8 +5201,11 @@
       <c r="J49" t="s">
         <v>125</v>
       </c>
-      <c r="M49" t="s">
-        <v>247</v>
+      <c r="M49" s="4">
+        <v>47</v>
+      </c>
+      <c r="N49" t="s">
+        <v>102</v>
       </c>
       <c r="Q49" s="4">
         <v>47</v>
@@ -5419,8 +5233,11 @@
       <c r="J50" t="s">
         <v>96</v>
       </c>
-      <c r="M50" t="s">
-        <v>248</v>
+      <c r="M50" s="4">
+        <v>48</v>
+      </c>
+      <c r="N50" t="s">
+        <v>58</v>
       </c>
       <c r="Q50" s="4">
         <v>48</v>
@@ -5448,8 +5265,11 @@
       <c r="J51" t="s">
         <v>29</v>
       </c>
-      <c r="M51" t="s">
-        <v>249</v>
+      <c r="M51" s="4">
+        <v>49</v>
+      </c>
+      <c r="N51" t="s">
+        <v>125</v>
       </c>
       <c r="Q51" s="4">
         <v>49</v>
@@ -5477,14 +5297,17 @@
       <c r="J52" t="s">
         <v>32</v>
       </c>
-      <c r="M52" t="s">
-        <v>250</v>
+      <c r="M52" s="4">
+        <v>50</v>
+      </c>
+      <c r="N52" t="s">
+        <v>109</v>
       </c>
       <c r="Q52" s="4">
         <v>50</v>
       </c>
       <c r="R52" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -5506,8 +5329,11 @@
       <c r="J53" t="s">
         <v>174</v>
       </c>
-      <c r="M53" t="s">
-        <v>251</v>
+      <c r="M53" s="4">
+        <v>51</v>
+      </c>
+      <c r="N53" t="s">
+        <v>98</v>
       </c>
       <c r="Q53" s="4">
         <v>51</v>
@@ -5535,8 +5361,11 @@
       <c r="J54" t="s">
         <v>145</v>
       </c>
-      <c r="M54" t="s">
-        <v>252</v>
+      <c r="M54" s="4">
+        <v>52</v>
+      </c>
+      <c r="N54" t="s">
+        <v>200</v>
       </c>
       <c r="Q54" s="4">
         <v>52</v>
@@ -5564,8 +5393,11 @@
       <c r="J55" t="s">
         <v>25</v>
       </c>
-      <c r="M55" t="s">
-        <v>253</v>
+      <c r="M55" s="4">
+        <v>53</v>
+      </c>
+      <c r="N55" t="s">
+        <v>137</v>
       </c>
       <c r="Q55" s="4">
         <v>53</v>
@@ -5593,8 +5425,11 @@
       <c r="J56" t="s">
         <v>30</v>
       </c>
-      <c r="M56" t="s">
-        <v>254</v>
+      <c r="M56" s="4">
+        <v>54</v>
+      </c>
+      <c r="N56" t="s">
+        <v>156</v>
       </c>
       <c r="Q56" s="4">
         <v>54</v>
@@ -5622,8 +5457,11 @@
       <c r="J57" t="s">
         <v>148</v>
       </c>
-      <c r="M57" t="s">
-        <v>255</v>
+      <c r="M57" s="4">
+        <v>55</v>
+      </c>
+      <c r="N57" t="s">
+        <v>31</v>
       </c>
       <c r="Q57" s="4">
         <v>55</v>
@@ -5651,8 +5489,11 @@
       <c r="J58" t="s">
         <v>186</v>
       </c>
-      <c r="M58" t="s">
-        <v>256</v>
+      <c r="M58" s="4">
+        <v>56</v>
+      </c>
+      <c r="N58" t="s">
+        <v>108</v>
       </c>
       <c r="Q58" s="4">
         <v>56</v>
@@ -5680,8 +5521,11 @@
       <c r="J59" t="s">
         <v>77</v>
       </c>
-      <c r="M59" t="s">
-        <v>257</v>
+      <c r="M59" s="4">
+        <v>57</v>
+      </c>
+      <c r="N59" t="s">
+        <v>188</v>
       </c>
       <c r="Q59" s="4">
         <v>57</v>
@@ -5709,8 +5553,11 @@
       <c r="J60" t="s">
         <v>137</v>
       </c>
-      <c r="M60" t="s">
-        <v>258</v>
+      <c r="M60" s="4">
+        <v>58</v>
+      </c>
+      <c r="N60" t="s">
+        <v>103</v>
       </c>
       <c r="Q60" s="4">
         <v>58</v>
@@ -5738,8 +5585,11 @@
       <c r="J61" t="s">
         <v>147</v>
       </c>
-      <c r="M61" t="s">
-        <v>259</v>
+      <c r="M61" s="4">
+        <v>59</v>
+      </c>
+      <c r="N61" t="s">
+        <v>76</v>
       </c>
       <c r="Q61" s="4">
         <v>59</v>
@@ -5767,8 +5617,11 @@
       <c r="J62" t="s">
         <v>191</v>
       </c>
-      <c r="M62" t="s">
-        <v>260</v>
+      <c r="M62" s="4">
+        <v>60</v>
+      </c>
+      <c r="N62" t="s">
+        <v>64</v>
       </c>
       <c r="Q62" s="4">
         <v>60</v>
@@ -5796,8 +5649,11 @@
       <c r="J63" t="s">
         <v>159</v>
       </c>
-      <c r="M63" t="s">
-        <v>261</v>
+      <c r="M63" s="4">
+        <v>61</v>
+      </c>
+      <c r="N63" t="s">
+        <v>112</v>
       </c>
       <c r="Q63" s="4">
         <v>61</v>
@@ -5825,8 +5681,11 @@
       <c r="J64" t="s">
         <v>35</v>
       </c>
-      <c r="M64" t="s">
-        <v>262</v>
+      <c r="M64" s="4">
+        <v>62</v>
+      </c>
+      <c r="N64" t="s">
+        <v>120</v>
       </c>
       <c r="Q64" s="4">
         <v>62</v>
@@ -5854,8 +5713,11 @@
       <c r="J65" t="s">
         <v>83</v>
       </c>
-      <c r="M65" t="s">
-        <v>263</v>
+      <c r="M65" s="4">
+        <v>63</v>
+      </c>
+      <c r="N65" t="s">
+        <v>206</v>
       </c>
       <c r="Q65" s="4">
         <v>63</v>
@@ -5883,8 +5745,11 @@
       <c r="J66" t="s">
         <v>104</v>
       </c>
-      <c r="M66" t="s">
-        <v>264</v>
+      <c r="M66" s="4">
+        <v>64</v>
+      </c>
+      <c r="N66" t="s">
+        <v>26</v>
       </c>
       <c r="Q66" s="4">
         <v>64</v>
@@ -5912,8 +5777,11 @@
       <c r="J67" t="s">
         <v>188</v>
       </c>
-      <c r="M67" t="s">
-        <v>265</v>
+      <c r="M67" s="4">
+        <v>65</v>
+      </c>
+      <c r="N67" t="s">
+        <v>167</v>
       </c>
       <c r="Q67" s="4">
         <v>65</v>
@@ -5941,14 +5809,17 @@
       <c r="J68" t="s">
         <v>34</v>
       </c>
-      <c r="M68" t="s">
-        <v>266</v>
+      <c r="M68" s="4">
+        <v>66</v>
+      </c>
+      <c r="N68" t="s">
+        <v>105</v>
       </c>
       <c r="Q68" s="4">
         <v>66</v>
       </c>
       <c r="R68" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -5970,8 +5841,11 @@
       <c r="J69" t="s">
         <v>102</v>
       </c>
-      <c r="M69" t="s">
-        <v>267</v>
+      <c r="M69" s="4">
+        <v>67</v>
+      </c>
+      <c r="N69" t="s">
+        <v>148</v>
       </c>
       <c r="Q69" s="4">
         <v>67</v>
@@ -5999,14 +5873,17 @@
       <c r="J70" t="s">
         <v>179</v>
       </c>
-      <c r="M70" t="s">
-        <v>268</v>
+      <c r="M70" s="4">
+        <v>68</v>
+      </c>
+      <c r="N70" t="s">
+        <v>56</v>
       </c>
       <c r="Q70" s="4">
         <v>68</v>
       </c>
       <c r="R70" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -6028,8 +5905,11 @@
       <c r="J71" t="s">
         <v>94</v>
       </c>
-      <c r="M71" t="s">
-        <v>269</v>
+      <c r="M71" s="4">
+        <v>69</v>
+      </c>
+      <c r="N71" t="s">
+        <v>173</v>
       </c>
       <c r="Q71" s="4">
         <v>69</v>
@@ -6057,8 +5937,11 @@
       <c r="J72" t="s">
         <v>69</v>
       </c>
-      <c r="M72" t="s">
-        <v>270</v>
+      <c r="M72" s="4">
+        <v>70</v>
+      </c>
+      <c r="N72" t="s">
+        <v>70</v>
       </c>
       <c r="Q72" s="4">
         <v>70</v>
@@ -6086,8 +5969,11 @@
       <c r="J73" t="s">
         <v>172</v>
       </c>
-      <c r="M73" t="s">
-        <v>271</v>
+      <c r="M73" s="4">
+        <v>71</v>
+      </c>
+      <c r="N73" t="s">
+        <v>53</v>
       </c>
       <c r="Q73" s="4">
         <v>71</v>
@@ -6115,8 +6001,11 @@
       <c r="J74" t="s">
         <v>37</v>
       </c>
-      <c r="M74" t="s">
-        <v>272</v>
+      <c r="M74" s="4">
+        <v>72</v>
+      </c>
+      <c r="N74" t="s">
+        <v>160</v>
       </c>
       <c r="Q74" s="4">
         <v>72</v>
@@ -6144,8 +6033,11 @@
       <c r="J75" t="s">
         <v>107</v>
       </c>
-      <c r="M75" t="s">
-        <v>273</v>
+      <c r="M75" s="4">
+        <v>73</v>
+      </c>
+      <c r="N75" t="s">
+        <v>199</v>
       </c>
       <c r="Q75" s="4">
         <v>73</v>
@@ -6173,8 +6065,11 @@
       <c r="J76" t="s">
         <v>26</v>
       </c>
-      <c r="M76" t="s">
-        <v>274</v>
+      <c r="M76" s="4">
+        <v>74</v>
+      </c>
+      <c r="N76" t="s">
+        <v>145</v>
       </c>
       <c r="Q76" s="4">
         <v>74</v>
@@ -6202,8 +6097,11 @@
       <c r="J77" t="s">
         <v>134</v>
       </c>
-      <c r="M77" t="s">
-        <v>275</v>
+      <c r="M77" s="4">
+        <v>75</v>
+      </c>
+      <c r="N77" t="s">
+        <v>25</v>
       </c>
       <c r="Q77" s="4">
         <v>75</v>
@@ -6231,8 +6129,11 @@
       <c r="J78" t="s">
         <v>199</v>
       </c>
-      <c r="M78" t="s">
-        <v>276</v>
+      <c r="M78" s="4">
+        <v>76</v>
+      </c>
+      <c r="N78" t="s">
+        <v>154</v>
       </c>
       <c r="Q78" s="4">
         <v>76</v>
@@ -6260,14 +6161,17 @@
       <c r="J79" t="s">
         <v>165</v>
       </c>
-      <c r="M79" t="s">
-        <v>277</v>
+      <c r="M79" s="4">
+        <v>77</v>
+      </c>
+      <c r="N79" t="s">
+        <v>190</v>
       </c>
       <c r="Q79" s="4">
         <v>77</v>
       </c>
       <c r="R79" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -6289,14 +6193,17 @@
       <c r="J80" t="s">
         <v>84</v>
       </c>
-      <c r="M80" t="s">
-        <v>278</v>
+      <c r="M80" s="4">
+        <v>78</v>
+      </c>
+      <c r="N80" t="s">
+        <v>95</v>
       </c>
       <c r="Q80" s="4">
         <v>78</v>
       </c>
       <c r="R80" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -6318,8 +6225,11 @@
       <c r="J81" t="s">
         <v>166</v>
       </c>
-      <c r="M81" t="s">
-        <v>279</v>
+      <c r="M81" s="4">
+        <v>79</v>
+      </c>
+      <c r="N81" t="s">
+        <v>138</v>
       </c>
       <c r="Q81" s="4">
         <v>79</v>
@@ -6347,8 +6257,11 @@
       <c r="J82" t="s">
         <v>170</v>
       </c>
-      <c r="M82" t="s">
-        <v>280</v>
+      <c r="M82" s="4">
+        <v>80</v>
+      </c>
+      <c r="N82" t="s">
+        <v>220</v>
       </c>
       <c r="Q82" s="4">
         <v>80</v>
@@ -6376,8 +6289,11 @@
       <c r="J83" t="s">
         <v>197</v>
       </c>
-      <c r="M83" t="s">
-        <v>281</v>
+      <c r="M83" s="4">
+        <v>81</v>
+      </c>
+      <c r="N83" t="s">
+        <v>168</v>
       </c>
       <c r="Q83" s="4">
         <v>81</v>
@@ -6405,14 +6321,17 @@
       <c r="J84" t="s">
         <v>44</v>
       </c>
-      <c r="M84" t="s">
-        <v>282</v>
+      <c r="M84" s="4">
+        <v>82</v>
+      </c>
+      <c r="N84" t="s">
+        <v>147</v>
       </c>
       <c r="Q84" s="4">
         <v>82</v>
       </c>
       <c r="R84" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -6434,8 +6353,11 @@
       <c r="J85" t="s">
         <v>95</v>
       </c>
-      <c r="M85" t="s">
-        <v>283</v>
+      <c r="M85" s="4">
+        <v>83</v>
+      </c>
+      <c r="N85" t="s">
+        <v>36</v>
       </c>
       <c r="Q85" s="4">
         <v>83</v>
@@ -6463,8 +6385,11 @@
       <c r="J86" t="s">
         <v>39</v>
       </c>
-      <c r="M86" t="s">
-        <v>284</v>
+      <c r="M86" s="4">
+        <v>84</v>
+      </c>
+      <c r="N86" t="s">
+        <v>54</v>
       </c>
       <c r="Q86" s="4">
         <v>84</v>
@@ -6492,8 +6417,11 @@
       <c r="J87" t="s">
         <v>192</v>
       </c>
-      <c r="M87" t="s">
-        <v>285</v>
+      <c r="M87" s="4">
+        <v>85</v>
+      </c>
+      <c r="N87" t="s">
+        <v>192</v>
       </c>
       <c r="Q87" s="4">
         <v>85</v>
@@ -6521,14 +6449,17 @@
       <c r="J88" t="s">
         <v>183</v>
       </c>
-      <c r="M88" t="s">
-        <v>286</v>
+      <c r="M88" s="4">
+        <v>86</v>
+      </c>
+      <c r="N88" t="s">
+        <v>170</v>
       </c>
       <c r="Q88" s="4">
         <v>86</v>
       </c>
       <c r="R88" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6550,8 +6481,11 @@
       <c r="J89" t="s">
         <v>124</v>
       </c>
-      <c r="M89" t="s">
-        <v>287</v>
+      <c r="M89" s="4">
+        <v>87</v>
+      </c>
+      <c r="N89" t="s">
+        <v>106</v>
       </c>
       <c r="Q89" s="4">
         <v>87</v>
@@ -6579,8 +6513,11 @@
       <c r="J90" t="s">
         <v>58</v>
       </c>
-      <c r="M90" t="s">
-        <v>288</v>
+      <c r="M90" s="4">
+        <v>88</v>
+      </c>
+      <c r="N90" t="s">
+        <v>122</v>
       </c>
       <c r="Q90" s="4">
         <v>88</v>
@@ -6608,8 +6545,11 @@
       <c r="J91" t="s">
         <v>64</v>
       </c>
-      <c r="M91" t="s">
-        <v>289</v>
+      <c r="M91" s="4">
+        <v>89</v>
+      </c>
+      <c r="N91" t="s">
+        <v>178</v>
       </c>
       <c r="Q91" s="4">
         <v>89</v>
@@ -6637,8 +6577,11 @@
       <c r="J92" t="s">
         <v>130</v>
       </c>
-      <c r="M92" t="s">
-        <v>290</v>
+      <c r="M92" s="4">
+        <v>90</v>
+      </c>
+      <c r="N92" t="s">
+        <v>29</v>
       </c>
       <c r="Q92" s="4">
         <v>90</v>
@@ -6666,9 +6609,6 @@
       <c r="J93" t="s">
         <v>40</v>
       </c>
-      <c r="M93" t="s">
-        <v>291</v>
-      </c>
       <c r="Q93" s="4">
         <v>91</v>
       </c>
@@ -6695,9 +6635,6 @@
       <c r="J94" t="s">
         <v>123</v>
       </c>
-      <c r="M94" t="s">
-        <v>292</v>
-      </c>
       <c r="Q94" s="4">
         <v>92</v>
       </c>
@@ -6724,9 +6661,6 @@
       <c r="J95" t="s">
         <v>56</v>
       </c>
-      <c r="M95" t="s">
-        <v>293</v>
-      </c>
       <c r="Q95" s="4">
         <v>93</v>
       </c>
@@ -6753,9 +6687,6 @@
       <c r="J96" t="s">
         <v>42</v>
       </c>
-      <c r="M96" t="s">
-        <v>294</v>
-      </c>
       <c r="Q96" s="4">
         <v>94</v>
       </c>
@@ -6782,14 +6713,11 @@
       <c r="J97" t="s">
         <v>101</v>
       </c>
-      <c r="M97" t="s">
-        <v>295</v>
-      </c>
       <c r="Q97" s="4">
         <v>95</v>
       </c>
       <c r="R97" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6811,14 +6739,11 @@
       <c r="J98" t="s">
         <v>149</v>
       </c>
-      <c r="M98" t="s">
-        <v>296</v>
-      </c>
       <c r="Q98" s="4">
         <v>96</v>
       </c>
       <c r="R98" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6840,14 +6765,11 @@
       <c r="J99" t="s">
         <v>76</v>
       </c>
-      <c r="M99" t="s">
-        <v>297</v>
-      </c>
       <c r="Q99" s="4">
         <v>97</v>
       </c>
       <c r="R99" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6869,14 +6791,11 @@
       <c r="J100" t="s">
         <v>127</v>
       </c>
-      <c r="M100" t="s">
-        <v>298</v>
-      </c>
       <c r="Q100" s="4">
         <v>98</v>
       </c>
       <c r="R100" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6898,9 +6817,6 @@
       <c r="J101" t="s">
         <v>79</v>
       </c>
-      <c r="M101" t="s">
-        <v>299</v>
-      </c>
       <c r="Q101" s="4">
         <v>99</v>
       </c>
@@ -6921,9 +6837,6 @@
       <c r="J102" t="s">
         <v>135</v>
       </c>
-      <c r="M102" t="s">
-        <v>300</v>
-      </c>
       <c r="Q102" s="4">
         <v>100</v>
       </c>
@@ -6944,9 +6857,6 @@
       <c r="J103" t="s">
         <v>190</v>
       </c>
-      <c r="M103" t="s">
-        <v>301</v>
-      </c>
       <c r="Q103" s="4">
         <v>101</v>
       </c>
@@ -6967,9 +6877,6 @@
       <c r="J104" t="s">
         <v>119</v>
       </c>
-      <c r="M104" t="s">
-        <v>302</v>
-      </c>
       <c r="Q104" s="4">
         <v>102</v>
       </c>
@@ -6990,14 +6897,11 @@
       <c r="J105" t="s">
         <v>38</v>
       </c>
-      <c r="M105" t="s">
-        <v>303</v>
-      </c>
       <c r="Q105" s="4">
         <v>103</v>
       </c>
       <c r="R105" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -7007,9 +6911,6 @@
       <c r="B106" t="s">
         <v>66</v>
       </c>
-      <c r="M106" t="s">
-        <v>304</v>
-      </c>
       <c r="Q106" s="4">
         <v>104</v>
       </c>
@@ -7024,9 +6925,6 @@
       <c r="B107" t="s">
         <v>157</v>
       </c>
-      <c r="M107" t="s">
-        <v>305</v>
-      </c>
       <c r="Q107" s="4">
         <v>105</v>
       </c>
@@ -7041,14 +6939,11 @@
       <c r="B108" t="s">
         <v>158</v>
       </c>
-      <c r="M108" t="s">
-        <v>306</v>
-      </c>
       <c r="Q108" s="4">
         <v>106</v>
       </c>
       <c r="R108" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -7058,9 +6953,6 @@
       <c r="B109" t="s">
         <v>159</v>
       </c>
-      <c r="M109" t="s">
-        <v>307</v>
-      </c>
       <c r="Q109" s="4">
         <v>107</v>
       </c>
@@ -7075,9 +6967,6 @@
       <c r="B110" t="s">
         <v>160</v>
       </c>
-      <c r="M110" t="s">
-        <v>308</v>
-      </c>
       <c r="Q110" s="4">
         <v>108</v>
       </c>
@@ -7092,9 +6981,6 @@
       <c r="B111" t="s">
         <v>161</v>
       </c>
-      <c r="M111" t="s">
-        <v>309</v>
-      </c>
       <c r="Q111" s="4">
         <v>109</v>
       </c>
@@ -7109,14 +6995,11 @@
       <c r="B112" t="s">
         <v>162</v>
       </c>
-      <c r="M112" t="s">
-        <v>310</v>
-      </c>
       <c r="Q112" s="4">
         <v>110</v>
       </c>
       <c r="R112" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7126,9 +7009,6 @@
       <c r="B113" t="s">
         <v>163</v>
       </c>
-      <c r="M113" t="s">
-        <v>311</v>
-      </c>
       <c r="Q113" s="4">
         <v>111</v>
       </c>
@@ -7143,9 +7023,6 @@
       <c r="B114" t="s">
         <v>164</v>
       </c>
-      <c r="M114" t="s">
-        <v>312</v>
-      </c>
       <c r="Q114" s="4">
         <v>112</v>
       </c>
@@ -7160,24 +7037,11 @@
       <c r="B115" t="s">
         <v>165</v>
       </c>
-      <c r="M115" t="s">
-        <v>313</v>
-      </c>
       <c r="Q115" s="4">
         <v>113</v>
       </c>
       <c r="R115" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M116" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M117" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7199,13 +7063,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
@@ -7233,7 +7100,237 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8034,7 +8131,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -8165,7 +8262,7 @@
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="4" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="N33" s="8">
         <v>0</v>
@@ -9279,7 +9376,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(盟会战!A$1:S$140,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
